--- a/app/data/tests/milk_project_plan.xlsx
+++ b/app/data/tests/milk_project_plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="файл остатки" sheetId="1" state="visible" r:id="rId2"/>
@@ -2536,8 +2536,8 @@
   </sheetPr>
   <dimension ref="A1:EE311"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L24" activeCellId="0" sqref="L24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J157" activeCellId="0" sqref="J157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16321,10 +16321,10 @@
         <v>-145.04</v>
       </c>
       <c r="I156" s="1" t="n">
-        <v>61</v>
+        <v>-120</v>
       </c>
       <c r="J156" s="1" t="n">
-        <v>118.72</v>
+        <v>-115</v>
       </c>
       <c r="K156" s="1" t="n">
         <v>6.35</v>
@@ -44158,7 +44158,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ229"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -52090,13 +52090,13 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G197 G3:G4 G8">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(IF(H3="",0, G3)  &gt;= - 0.05* IF(H3="",0,H3), IF(H3="",0, G3) &lt; 0)</formula>
+      <formula>AND(IF(H3="",0, G3)  &gt;= - 0.05* IF(H3="",0,H3), IF(H3="",й, G3) &lt; 0)</formula>
     </cfRule>
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>IF(H3="",0, G3)  &lt; - 0.05* IF(H3="",0,H3)</formula>
+      <formula>IF(H3="",0, G3)  &lt; - лдл * IF(H3="",е,H3)</formula>
     </cfRule>
     <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(H3="",0, G3)  &gt;= - 0.05* IF(H3="",0,H3), IF(H3="",0, G3) &lt; 0)</formula>
+      <formula>%nd(H3="",0, G3)  &gt;= - 0.05* IF(H3="",0,H3), IF(H3="",0, G3) &lt; 0)</formula>
     </cfRule>
     <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(IF(H3="",0, G3)  &lt;= 0.05* IF(H3="",0,H3), IF(H3="",0, G3) &gt; 0)</formula>

--- a/app/data/tests/milk_project_plan.xlsx
+++ b/app/data/tests/milk_project_plan.xlsx
@@ -53243,7 +53243,7 @@
   <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+      <selection pane="topLeft" activeCell="Q18" activeCellId="0" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -60504,16 +60504,16 @@
   </mergeCells>
   <conditionalFormatting sqref="F12:F204 F3:F9">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>IF(#REF!="",0, #REF!)  &lt; - 0.05* IF(#REF!="",0,INDIRECT("C" &amp; ROW() - 1))</formula>
+      <formula>IF(#ref!="",0, #ref!)  &lt; - 0.05* IF(#ref!="",0,INDIRECT("C" &amp; ROW() - 1))</formula>
     </cfRule>
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(IF(#REF!="",0, #REF!)  &gt;= - 0.05* IF(#REF!="",0,INDIRECT("C" &amp; ROW() - 1)), IF(#REF!="",0, #REF!) &lt; 0)</formula>
+      <formula>AND(IF(#ref!="",0, #ref!)  &gt;= - 0.05* IF(#ref!="",0,INDIRECT("C" &amp; ROW() - 1)), IF(#ref!="",0, #ref!) &lt; 0)</formula>
     </cfRule>
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(#REF!="",0, #REF!)  &lt;= 0.05* IF(#REF!="",0,INDIRECT("C" &amp; ROW() - 1)), IF(#REF!="",0, #REF!) &gt; 0)</formula>
+      <formula>AND(#ref!="",0, #ref!)  &lt;= 0.05* IF(#ref!="",0,INDIRECT("C" &amp; ROW() - 1)), IF(#ref!="",0, #ref!) &gt; 0)</formula>
     </cfRule>
     <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>IF(#REF!="",0,#REF!)  &gt; 0.05* IF(#REF!="",0,INDIRECT("C" &amp; ROW() - 1))</formula>
+      <formula>IF(#ref!="",0,#ref!)  &gt; 0.05* IF(#ref!="",0,INDIRECT("C" &amp; ROW() - 1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F11">

--- a/app/data/tests/milk_project_plan.xlsx
+++ b/app/data/tests/milk_project_plan.xlsx
@@ -53243,7 +53243,7 @@
   <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q18" activeCellId="0" sqref="Q18"/>
+      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
